--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574B738E-2C4E-49B1-94F8-9B327D2F2AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7D440-EDE1-4A11-A816-BDB2C68D6CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27360" yWindow="1440" windowWidth="22020" windowHeight="11220" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
+    <workbookView xWindow="9516" yWindow="1080" windowWidth="12036" windowHeight="8976" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="298">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -901,6 +901,46 @@
   </si>
   <si>
     <t>26187</t>
+  </si>
+  <si>
+    <t>신촌푸르지오</t>
+  </si>
+  <si>
+    <t>독립문극동</t>
+  </si>
+  <si>
+    <t>DMC파크뷰자이</t>
+  </si>
+  <si>
+    <t>연희파크푸르지오</t>
+  </si>
+  <si>
+    <t>e편한세상신촌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈의문센트레빌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천연뜨란채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍제역해링턴플레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인왕산현대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e편한세상서대문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐스테이트홍은포레스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -952,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,9 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1323,7 +1360,7 @@
       <c r="A2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1331,7 +1368,7 @@
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1339,7 +1376,7 @@
       <c r="A4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1347,7 +1384,7 @@
       <c r="A5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1355,7 +1392,7 @@
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1363,7 +1400,7 @@
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1371,7 +1408,7 @@
       <c r="A8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1379,7 +1416,7 @@
       <c r="A9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1387,7 +1424,7 @@
       <c r="A10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1395,7 +1432,7 @@
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1403,7 +1440,7 @@
       <c r="A12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1411,7 +1448,7 @@
       <c r="A13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1419,7 +1456,7 @@
       <c r="A14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1427,7 +1464,7 @@
       <c r="A15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1435,7 +1472,7 @@
       <c r="A16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1443,7 +1480,7 @@
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1451,7 +1488,7 @@
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1459,7 +1496,7 @@
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1467,7 +1504,7 @@
       <c r="A20" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1475,7 +1512,7 @@
       <c r="A21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1483,7 +1520,7 @@
       <c r="A22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1491,7 +1528,7 @@
       <c r="A23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1499,7 +1536,7 @@
       <c r="A24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1507,7 +1544,7 @@
       <c r="A25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1515,7 +1552,7 @@
       <c r="A26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1523,7 +1560,7 @@
       <c r="A27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1531,7 +1568,7 @@
       <c r="A28" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1539,7 +1576,7 @@
       <c r="A29" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1547,7 +1584,7 @@
       <c r="A30" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1555,7 +1592,7 @@
       <c r="A31" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1563,7 +1600,7 @@
       <c r="A32" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1571,7 +1608,7 @@
       <c r="A33" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1579,7 +1616,7 @@
       <c r="A34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1587,7 +1624,7 @@
       <c r="A35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1595,7 +1632,7 @@
       <c r="A36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1603,7 +1640,7 @@
       <c r="A37" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1611,7 +1648,7 @@
       <c r="A38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1619,7 +1656,7 @@
       <c r="A39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1627,7 +1664,7 @@
       <c r="A40" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1635,7 +1672,7 @@
       <c r="A41" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1643,7 +1680,7 @@
       <c r="A42" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1651,7 +1688,7 @@
       <c r="A43" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1659,7 +1696,7 @@
       <c r="A44" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1667,7 +1704,7 @@
       <c r="A45" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1675,7 +1712,7 @@
       <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1683,7 +1720,7 @@
       <c r="A47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1691,7 +1728,7 @@
       <c r="A48" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1699,7 +1736,7 @@
       <c r="A49" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1707,7 +1744,7 @@
       <c r="A50" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1715,7 +1752,7 @@
       <c r="A51" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1723,7 +1760,7 @@
       <c r="A52" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1731,7 +1768,7 @@
       <c r="A53" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1739,7 +1776,7 @@
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1747,7 +1784,7 @@
       <c r="A55" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1755,7 +1792,7 @@
       <c r="A56" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1763,7 +1800,7 @@
       <c r="A57" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1771,7 +1808,7 @@
       <c r="A58" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1779,7 +1816,7 @@
       <c r="A59" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1787,7 +1824,7 @@
       <c r="A60" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1795,7 +1832,7 @@
       <c r="A61" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1803,7 +1840,7 @@
       <c r="A62" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1811,7 +1848,7 @@
       <c r="A63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1819,7 +1856,7 @@
       <c r="A64" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1827,7 +1864,7 @@
       <c r="A65" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1835,7 +1872,7 @@
       <c r="A66" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1843,7 +1880,7 @@
       <c r="A67" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1851,7 +1888,7 @@
       <c r="A68" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1859,7 +1896,7 @@
       <c r="A69" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1867,7 +1904,7 @@
       <c r="A70" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1875,7 +1912,7 @@
       <c r="A71" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1883,7 +1920,7 @@
       <c r="A72" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1891,7 +1928,7 @@
       <c r="A73" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1899,7 +1936,7 @@
       <c r="A74" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1907,7 +1944,7 @@
       <c r="A75" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1915,7 +1952,7 @@
       <c r="A76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1923,7 +1960,7 @@
       <c r="A77" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1931,7 +1968,7 @@
       <c r="A78" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1939,7 +1976,7 @@
       <c r="A79" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1947,7 +1984,7 @@
       <c r="A80" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1955,7 +1992,7 @@
       <c r="A81" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1963,7 +2000,7 @@
       <c r="A82" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1971,7 +2008,7 @@
       <c r="A83" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1979,7 +2016,7 @@
       <c r="A84" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1987,7 +2024,7 @@
       <c r="A85" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1995,7 +2032,7 @@
       <c r="A86" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2003,7 +2040,7 @@
       <c r="A87" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2011,7 +2048,7 @@
       <c r="A88" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2019,7 +2056,7 @@
       <c r="A89" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2027,7 +2064,7 @@
       <c r="A90" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2035,7 +2072,7 @@
       <c r="A91" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2043,7 +2080,7 @@
       <c r="A92" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2051,7 +2088,7 @@
       <c r="A93" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2059,7 +2096,7 @@
       <c r="A94" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2067,7 +2104,7 @@
       <c r="A95" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2075,7 +2112,7 @@
       <c r="A96" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2083,7 +2120,7 @@
       <c r="A97" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2091,7 +2128,7 @@
       <c r="A98" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2099,7 +2136,7 @@
       <c r="A99" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2107,7 +2144,7 @@
       <c r="A100" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2115,7 +2152,7 @@
       <c r="A101" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2123,7 +2160,7 @@
       <c r="A102" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2131,7 +2168,7 @@
       <c r="A103" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2139,7 +2176,7 @@
       <c r="A104" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2147,7 +2184,7 @@
       <c r="A105" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2155,7 +2192,7 @@
       <c r="A106" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2163,7 +2200,7 @@
       <c r="A107" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2171,7 +2208,7 @@
       <c r="A108" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2179,7 +2216,7 @@
       <c r="A109" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2187,7 +2224,7 @@
       <c r="A110" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2195,7 +2232,7 @@
       <c r="A111" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2203,7 +2240,7 @@
       <c r="A112" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2211,7 +2248,7 @@
       <c r="A113" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2219,7 +2256,7 @@
       <c r="A114" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2227,7 +2264,7 @@
       <c r="A115" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2235,7 +2272,7 @@
       <c r="A116" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2243,7 +2280,7 @@
       <c r="A117" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2251,7 +2288,7 @@
       <c r="A118" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2259,7 +2296,7 @@
       <c r="A119" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2267,7 +2304,7 @@
       <c r="A120" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2275,7 +2312,7 @@
       <c r="A121" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2283,7 +2320,7 @@
       <c r="A122" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2291,7 +2328,7 @@
       <c r="A123" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2299,7 +2336,7 @@
       <c r="A124" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2307,7 +2344,7 @@
       <c r="A125" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2315,7 +2352,7 @@
       <c r="A126" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2323,7 +2360,7 @@
       <c r="A127" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2331,7 +2368,7 @@
       <c r="A128" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2339,7 +2376,7 @@
       <c r="A129" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2347,7 +2384,7 @@
       <c r="A130" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2355,7 +2392,7 @@
       <c r="A131" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2363,7 +2400,7 @@
       <c r="A132" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2371,7 +2408,7 @@
       <c r="A133" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2379,7 +2416,7 @@
       <c r="A134" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2387,7 +2424,7 @@
       <c r="A135" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2395,7 +2432,7 @@
       <c r="A136" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2403,7 +2440,7 @@
       <c r="A137" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2411,7 +2448,7 @@
       <c r="A138" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2419,7 +2456,7 @@
       <c r="A139" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2427,7 +2464,7 @@
       <c r="A140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2435,7 +2472,7 @@
       <c r="A141" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2443,7 +2480,7 @@
       <c r="A142" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2451,7 +2488,7 @@
       <c r="A143" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2459,8 +2496,104 @@
       <c r="A144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>110209</v>
+      </c>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>110092</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>849</v>
+      </c>
+      <c r="B147" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>26046</v>
+      </c>
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>11567</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>941</v>
+      </c>
+      <c r="B150" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>108064</v>
+      </c>
+      <c r="B151" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>124802</v>
+      </c>
+      <c r="B152" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>945</v>
+      </c>
+      <c r="B153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>128515</v>
+      </c>
+      <c r="B154" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>114768</v>
+      </c>
+      <c r="B155" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>128027</v>
+      </c>
+      <c r="B156" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7D440-EDE1-4A11-A816-BDB2C68D6CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2344BF92-CD60-43FA-85C7-E87065A6FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9516" yWindow="1080" windowWidth="12036" windowHeight="8976" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="310">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -940,6 +940,54 @@
   </si>
   <si>
     <t>힐스테이트홍은포레스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울숲힐스테이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성수롯데캐슬파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e편한세상옥수파크힐스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수어울림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e편한세상금호파크힐스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센트라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대림강변타운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호1차푸르지오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕십리자이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕십리금호어울림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,10 +1385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2596,6 +2644,102 @@
         <v>297</v>
       </c>
     </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>27424</v>
+      </c>
+      <c r="B157" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>8104</v>
+      </c>
+      <c r="B158" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>556</v>
+      </c>
+      <c r="B159" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>110938</v>
+      </c>
+      <c r="B160" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>103136</v>
+      </c>
+      <c r="B161" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>1179</v>
+      </c>
+      <c r="B162" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>110936</v>
+      </c>
+      <c r="B163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>109910</v>
+      </c>
+      <c r="B164" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>2976</v>
+      </c>
+      <c r="B165" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>10316</v>
+      </c>
+      <c r="B166" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>111002</v>
+      </c>
+      <c r="B167" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>9124</v>
+      </c>
+      <c r="B168" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2344BF92-CD60-43FA-85C7-E87065A6FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DDE54-DF7A-4FB0-BAE2-7A8BF1363066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="322">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -989,6 +989,42 @@
   <si>
     <t>왕십리금호어울림</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹번역e편한세상캐슬</t>
+  </si>
+  <si>
+    <t>래미안베라힐즈</t>
+  </si>
+  <si>
+    <t>백련산해모로</t>
+  </si>
+  <si>
+    <t>DMC센트럴자이</t>
+  </si>
+  <si>
+    <t>DMC SK뷰</t>
+  </si>
+  <si>
+    <t>DMC파인시티자이</t>
+  </si>
+  <si>
+    <t>북한산힐스테이트7차</t>
+  </si>
+  <si>
+    <t>불광롯데캐슬</t>
+  </si>
+  <si>
+    <t>은평뉴타운박석고개힐스테이트1단지</t>
+  </si>
+  <si>
+    <t>센트레빌아스테리움시그니처</t>
+  </si>
+  <si>
+    <t>응암역효성해링턴플레이스</t>
+  </si>
+  <si>
+    <t>경남아너스빌</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1086,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1385,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="J164" sqref="J164"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L168" sqref="L168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2740,6 +2778,102 @@
         <v>309</v>
       </c>
     </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" s="4">
+        <v>119275</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="4">
+        <v>111575</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="4">
+        <v>119053</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="4">
+        <v>134321</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="4">
+        <v>124651</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="4">
+        <v>136043</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="4">
+        <v>26896</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="4">
+        <v>103025</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="4">
+        <v>26869</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="4">
+        <v>156291</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="4">
+        <v>112914</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="4">
+        <v>9354</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DDE54-DF7A-4FB0-BAE2-7A8BF1363066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE92E89-D5DD-417E-9C48-9DD06DDF70B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="334">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -1025,6 +1025,42 @@
   </si>
   <si>
     <t>경남아너스빌</t>
+  </si>
+  <si>
+    <t>사가정센트럴아이파크</t>
+  </si>
+  <si>
+    <t>한양수자인사가정파크</t>
+  </si>
+  <si>
+    <t>용마산하늘채</t>
+  </si>
+  <si>
+    <t>리버센SK롯데캐슬</t>
+  </si>
+  <si>
+    <t>e편한세상화랑대</t>
+  </si>
+  <si>
+    <t>태릉브라운스톤</t>
+  </si>
+  <si>
+    <t>데시앙</t>
+  </si>
+  <si>
+    <t>상봉태영데시앙</t>
+  </si>
+  <si>
+    <t>신내8단지두산화성</t>
+  </si>
+  <si>
+    <t>중랑숲시티프라디움</t>
+  </si>
+  <si>
+    <t>신내데시앙포레</t>
+  </si>
+  <si>
+    <t>중랑숲리가</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,7 +1123,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1423,10 +1458,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="L168" sqref="L168"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2779,7 +2814,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>119275</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -2787,7 +2822,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>111575</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -2795,7 +2830,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>119053</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -2803,7 +2838,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>134321</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -2811,7 +2846,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>124651</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -2819,7 +2854,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>136043</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -2827,7 +2862,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>26896</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -2835,7 +2870,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>103025</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -2843,7 +2878,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>26869</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -2851,7 +2886,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>156291</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -2859,7 +2894,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>112914</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -2867,15 +2902,112 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>9354</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="3">
+        <v>119588</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="3">
+        <v>119155</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="3">
+        <v>107072</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="3">
+        <v>153402</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="3">
+        <v>110153</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="3">
+        <v>3467</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="3">
+        <v>100653</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="3">
+        <v>3470</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="3">
+        <v>815</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="3">
+        <v>127599</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="3">
+        <v>107073</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="3">
+        <v>102941</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE92E89-D5DD-417E-9C48-9DD06DDF70B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B97FC2F-4A7D-4C38-A34C-BDC4B2CD4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="346">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -1061,6 +1061,42 @@
   </si>
   <si>
     <t>중랑숲리가</t>
+  </si>
+  <si>
+    <t>귀인마을현대홈타운</t>
+  </si>
+  <si>
+    <t>초원2단지대림</t>
+  </si>
+  <si>
+    <t>무궁화경남</t>
+  </si>
+  <si>
+    <t>평촌더샵센트럴시티</t>
+  </si>
+  <si>
+    <t>인덕원마을삼성</t>
+  </si>
+  <si>
+    <t>은하수(벽산)</t>
+  </si>
+  <si>
+    <t>평촌센텀퍼스트</t>
+  </si>
+  <si>
+    <t>평촌트리지아</t>
+  </si>
+  <si>
+    <t>호계현대홈타운1차</t>
+  </si>
+  <si>
+    <t>평촌래미안푸르지오</t>
+  </si>
+  <si>
+    <t>동편마을3단지</t>
+  </si>
+  <si>
+    <t>평촌엘프라우드</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3005,6 +3041,102 @@
         <v>333</v>
       </c>
     </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>8626</v>
+      </c>
+      <c r="B193" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>1483</v>
+      </c>
+      <c r="B194" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>1471</v>
+      </c>
+      <c r="B195" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>107579</v>
+      </c>
+      <c r="B196" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>2505</v>
+      </c>
+      <c r="B197" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>1467</v>
+      </c>
+      <c r="B198" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>154917</v>
+      </c>
+      <c r="B199" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>142558</v>
+      </c>
+      <c r="B200" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>3081</v>
+      </c>
+      <c r="B201" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>126060</v>
+      </c>
+      <c r="B202" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>102312</v>
+      </c>
+      <c r="B203" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>144023</v>
+      </c>
+      <c r="B204" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B97FC2F-4A7D-4C38-A34C-BDC4B2CD4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C9F761-410E-4852-A5AF-16EA09C4C21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="358">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -1097,6 +1086,42 @@
   </si>
   <si>
     <t>평촌엘프라우드</t>
+  </si>
+  <si>
+    <t>자연앤힐스테이트</t>
+  </si>
+  <si>
+    <t>광교중흥에스클래스(주상복합)</t>
+  </si>
+  <si>
+    <t>광교e편한세상2차</t>
+  </si>
+  <si>
+    <t>힐스테이트영통</t>
+  </si>
+  <si>
+    <t>래미안영통마크원2단지</t>
+  </si>
+  <si>
+    <t>한양수자인에듀파크</t>
+  </si>
+  <si>
+    <t>영통라온프라이빗</t>
+  </si>
+  <si>
+    <t>영통에듀파크</t>
+  </si>
+  <si>
+    <t>건영1차</t>
+  </si>
+  <si>
+    <t>매탄위브하늘채</t>
+  </si>
+  <si>
+    <t>영흥숲푸르지오파크비엔</t>
+  </si>
+  <si>
+    <t>현대힐스테이트</t>
   </si>
 </sst>
 </file>
@@ -1187,39 +1212,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1271,7 +1296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1382,6 +1407,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1390,13 +1422,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1461,31 +1486,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1494,10 +1499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205:A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3137,6 +3142,102 @@
         <v>345</v>
       </c>
     </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>101273</v>
+      </c>
+      <c r="B205" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>111038</v>
+      </c>
+      <c r="B206" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>102119</v>
+      </c>
+      <c r="B207" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>109412</v>
+      </c>
+      <c r="B208" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>103518</v>
+      </c>
+      <c r="B209" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>105153</v>
+      </c>
+      <c r="B210" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>109929</v>
+      </c>
+      <c r="B211" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>1804</v>
+      </c>
+      <c r="B212" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>2490</v>
+      </c>
+      <c r="B213" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>22911</v>
+      </c>
+      <c r="B214" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>135404</v>
+      </c>
+      <c r="B215" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>13698</v>
+      </c>
+      <c r="B216" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C9F761-410E-4852-A5AF-16EA09C4C21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E139A12C-7D77-4F80-9EB5-B86F9A303FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="358">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -1128,7 +1128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,8 +1144,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,13 +1164,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1173,7 +1206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,6 +1217,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1499,10 +1544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:A216"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217:B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3230,11 +3275,107 @@
         <v>356</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>13698</v>
       </c>
       <c r="B216" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>101273</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
+        <v>111038</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>102119</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5">
+        <v>109412</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>103518</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="5">
+        <v>105153</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>109929</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5">
+        <v>1804</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>2490</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5">
+        <v>22911</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>135404</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5">
+        <v>13698</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>357</v>
       </c>
     </row>

--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E139A12C-7D77-4F80-9EB5-B86F9A303FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1D262-159D-4571-8544-0F9EFF6A1FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
+    <workbookView xWindow="1140" yWindow="2088" windowWidth="18600" windowHeight="10056" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="370">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -1122,13 +1122,49 @@
   </si>
   <si>
     <t>현대힐스테이트</t>
+  </si>
+  <si>
+    <t>신도림4차e-편한세상</t>
+  </si>
+  <si>
+    <t>신도림동아2차</t>
+  </si>
+  <si>
+    <t>신도림대림1,2차(e편한세상)</t>
+  </si>
+  <si>
+    <t>고척파크푸르지오</t>
+  </si>
+  <si>
+    <t>개봉아이파크</t>
+  </si>
+  <si>
+    <t>개봉푸르지오</t>
+  </si>
+  <si>
+    <t>신도림태영타운</t>
+  </si>
+  <si>
+    <t>삼성래미안</t>
+  </si>
+  <si>
+    <t>천왕이펜하우스4단지</t>
+  </si>
+  <si>
+    <t>한양수자인에듀힐즈</t>
+  </si>
+  <si>
+    <t>하버라인2단지</t>
+  </si>
+  <si>
+    <t>온수힐스테이트</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,6 +1182,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1206,7 +1248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,6 +1269,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1544,10 +1598,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217:B228"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229:B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3379,6 +3433,102 @@
         <v>357</v>
       </c>
     </row>
+    <row r="229" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="8">
+        <v>3356</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="9">
+        <v>3209</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="8">
+        <v>3354</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="8">
+        <v>25853</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="8">
+        <v>17538</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="8">
+        <v>104934</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="8">
+        <v>3204</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="8">
+        <v>8073</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="8">
+        <v>103269</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="8">
+        <v>119166</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="10">
+        <v>103269</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="8">
+        <v>26639</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1D262-159D-4571-8544-0F9EFF6A1FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE68E36-3B32-4D97-9126-E406CD8D244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2088" windowWidth="18600" windowHeight="10056" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="382">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -1158,6 +1158,42 @@
   </si>
   <si>
     <t>온수힐스테이트</t>
+  </si>
+  <si>
+    <t>진달래효성</t>
+  </si>
+  <si>
+    <t>다정한마을KCC</t>
+  </si>
+  <si>
+    <t>미리내동성</t>
+  </si>
+  <si>
+    <t>부천소사푸르지오</t>
+  </si>
+  <si>
+    <t>소새울역중흥S클래스</t>
+  </si>
+  <si>
+    <t>부천옥길호반베르디움</t>
+  </si>
+  <si>
+    <t>역곡역e편한세상</t>
+  </si>
+  <si>
+    <t>일루미스테이트</t>
+  </si>
+  <si>
+    <t>두산위브트레지움2단지</t>
+  </si>
+  <si>
+    <t>e편한세상온수</t>
+  </si>
+  <si>
+    <t>송내역파인푸르지오1단지</t>
+  </si>
+  <si>
+    <t>원종금호어울림</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,6 +1319,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1301,9 +1340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1341,7 +1380,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1447,7 +1486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1589,7 +1628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1598,10 +1637,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B240"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229:B240"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3529,6 +3568,102 @@
         <v>369</v>
       </c>
     </row>
+    <row r="241" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="10">
+        <v>3615</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="10">
+        <v>8247</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="10">
+        <v>1420</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="10">
+        <v>103865</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="10">
+        <v>14462</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="10">
+        <v>110681</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="10">
+        <v>102622</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="10">
+        <v>127082</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="4">
+        <v>27540</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="5">
+        <v>120265</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
+        <v>108756</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
+        <v>102634</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/tracking-list.xlsx
+++ b/file/tracking-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE68E36-3B32-4D97-9126-E406CD8D244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAF33A3-4BAE-485E-9E51-AE36D7055AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{127A3AFD-68BF-4CB3-BE69-28EAF96A9C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="394">
   <si>
     <t>아크로리버하임</t>
   </si>
@@ -1194,6 +1194,42 @@
   </si>
   <si>
     <t>원종금호어울림</t>
+  </si>
+  <si>
+    <t>래미안하이어스</t>
+  </si>
+  <si>
+    <t>솔거대림</t>
+  </si>
+  <si>
+    <t>세종주공6단지</t>
+  </si>
+  <si>
+    <t>힐스테이트금정역(주상복합)</t>
+  </si>
+  <si>
+    <t>금정쌍용</t>
+  </si>
+  <si>
+    <t>율곡주공3단지</t>
+  </si>
+  <si>
+    <t>군포대야미e-편한세상</t>
+  </si>
+  <si>
+    <t>가야주공5단지1차</t>
+  </si>
+  <si>
+    <t>한양수리</t>
+  </si>
+  <si>
+    <t>의왕역센트럴시티</t>
+  </si>
+  <si>
+    <t>청천마을대우</t>
+  </si>
+  <si>
+    <t>무지개마을대림</t>
   </si>
 </sst>
 </file>
@@ -1340,9 +1376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1380,7 +1416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1486,7 +1522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1628,7 +1664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1637,10 +1673,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC15EF-5188-42DD-AADD-57E027220B54}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="E256" sqref="E256"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253:B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3664,6 +3700,102 @@
         <v>381</v>
       </c>
     </row>
+    <row r="253" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
+        <v>101283</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="4">
+        <v>2895</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="5">
+        <v>3864</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
+        <v>121277</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="5">
+        <v>3580</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="5">
+        <v>8386</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
+        <v>26398</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="5">
+        <v>2886</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
+        <v>7963</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>101480</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="5">
+        <v>104999</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="5">
+        <v>8333</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
